--- a/SMC Challenge 6/eligibility criteria/Dataset1_Hemoglobin_Trials_First.xlsx
+++ b/SMC Challenge 6/eligibility criteria/Dataset1_Hemoglobin_Trials_First.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\ClinicalTrialChallenge\SMC Challenge 6\eligibility criteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E8CCD-A6BA-4C1E-BE08-0616A26689D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E009B1-618D-4877-B736-483F2A5E4090}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3567,10 +3567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -3631,7 +3632,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>589</v>
       </c>
@@ -3647,7 +3648,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>592</v>
       </c>
@@ -3663,7 +3664,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>595</v>
       </c>
@@ -3679,7 +3680,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>598</v>
       </c>
@@ -3695,7 +3696,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>601</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>604</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>607</v>
       </c>
@@ -3858,7 +3859,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>610</v>
       </c>
@@ -3874,7 +3875,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="151.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>613</v>
       </c>
@@ -3890,7 +3891,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>616</v>
       </c>
@@ -3906,7 +3907,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>619</v>
       </c>
@@ -3922,7 +3923,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>622</v>
       </c>
@@ -3938,7 +3939,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>625</v>
       </c>
@@ -3954,7 +3955,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>628</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>631</v>
       </c>
@@ -4009,7 +4010,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>634</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>637</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>640</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>643</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>646</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>649</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>652</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>655</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>658</v>
       </c>
@@ -4233,7 +4234,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>661</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>664</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>667</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>670</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>673</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>676</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>679</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>682</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>685</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>688</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>691</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>694</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>697</v>
       </c>
@@ -4877,7 +4878,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>700</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>703</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>706</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>709</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>712</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>715</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>718</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>721</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>724</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>727</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="5" customFormat="1" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="5" customFormat="1" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>730</v>
       </c>
@@ -5287,7 +5288,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>733</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>736</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>739</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>742</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>745</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>748</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>751</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="5" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" s="5" customFormat="1" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>754</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>757</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>760</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>763</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>766</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>769</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>772</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>775</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>778</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>781</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>784</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>787</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>790</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>793</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>796</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>799</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>802</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="271.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="271.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>805</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>808</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>811</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>814</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>817</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="151.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>820</v>
       </c>
@@ -6745,7 +6746,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>823</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>826</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>829</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>832</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>835</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>838</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>841</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>844</v>
       </c>
@@ -7041,7 +7042,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>847</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>850</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>853</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>856</v>
       </c>
@@ -7235,7 +7236,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>859</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>862</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>865</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>868</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>871</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>874</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>877</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>880</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>883</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>886</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>889</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>892</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>895</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>898</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>901</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>904</v>
       </c>
@@ -7758,7 +7759,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>907</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>910</v>
       </c>
@@ -7901,7 +7902,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>913</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>916</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>919</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>922</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>925</v>
       </c>
@@ -7971,7 +7972,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>928</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>931</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>934</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>937</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>940</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>943</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>946</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>949</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>952</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>955</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>958</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>961</v>
       </c>
@@ -8323,7 +8324,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>964</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>967</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>970</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>973</v>
       </c>
@@ -8448,7 +8449,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>976</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>979</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>982</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>985</v>
       </c>
@@ -8573,7 +8574,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>988</v>
       </c>
@@ -8587,7 +8588,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="151.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>991</v>
       </c>
@@ -8670,7 +8671,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>994</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>997</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>1000</v>
       </c>
@@ -8873,6 +8874,11 @@
     <row r="348" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:G279" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G348">
       <sortCondition ref="A1:A348"/>
     </sortState>
@@ -8890,7 +8896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>

--- a/SMC Challenge 6/eligibility criteria/Dataset1_Hemoglobin_Trials_First.xlsx
+++ b/SMC Challenge 6/eligibility criteria/Dataset1_Hemoglobin_Trials_First.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\ClinicalTrialChallenge\SMC Challenge 6\eligibility criteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E009B1-618D-4877-B736-483F2A5E4090}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDFF8B7-6C58-4995-9C8C-D684873B52FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3568,10 +3568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G348"/>
+  <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -5989,7 +5989,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>234</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>237</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="226.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="226.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>241</v>
       </c>
@@ -6054,11 +6054,11 @@
       <c r="F131" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="H131" s="5" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>244</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>784</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>787</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>790</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>248</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>793</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>251</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>255</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>796</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>258</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>262</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>799</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="5" customFormat="1" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="5" customFormat="1" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>265</v>
       </c>
